--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE4A8F3F-E38A-4B0F-8B9B-AA9A429630D2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B5E05-EC8F-4340-8F54-EB5B4F2D20BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>INITIATION</t>
   </si>
@@ -154,13 +154,55 @@
   </si>
   <si>
     <t>Close Procurement</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Annual Salary</t>
+  </si>
+  <si>
+    <t>Month Salary</t>
+  </si>
+  <si>
+    <t>Daily Salary</t>
+  </si>
+  <si>
+    <t>IT Project Manager</t>
+  </si>
+  <si>
+    <t>Web Designer and Developer with PHP Skills</t>
+  </si>
+  <si>
+    <t>Documentation Specialist</t>
+  </si>
+  <si>
+    <t>Quality Assurance Analyst</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>IT Project Manager, Documentation Specialist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,10 +221,31 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -208,10 +271,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -222,8 +286,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,11 +309,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,248 +633,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E1" s="15"/>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16">
+        <v>917718</v>
+      </c>
+      <c r="H2" s="16">
+        <f>G2/12</f>
+        <v>76476.5</v>
+      </c>
+      <c r="I2" s="16">
+        <f>H2/20</f>
+        <v>3823.8249999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="18">
+        <v>246000</v>
+      </c>
+      <c r="H3" s="16">
+        <f t="shared" ref="H3:H5" si="0">G3/12</f>
+        <v>20500</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I5" si="1">H3/20</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="16">
+        <v>195080</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>16256.666666666666</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="1"/>
+        <v>812.83333333333326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="16">
+        <v>262101</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="0"/>
+        <v>21841.75</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
+        <v>1092.0875000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="C28">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="C29">
+        <v>36.125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="C32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="C34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="C35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="C38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="C41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B5E05-EC8F-4340-8F54-EB5B4F2D20BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A861956-CF21-4538-975F-20E674377190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
   <si>
     <t>INITIATION</t>
   </si>
@@ -183,19 +183,50 @@
     <t>DURATION</t>
   </si>
   <si>
-    <t>IT Project Manager, Documentation Specialist</t>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Project Team</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Develop Final Iteration</t>
+  </si>
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t># OF DAYS</t>
+  </si>
+  <si>
+    <t>COST/DAY</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>QA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;₱&quot;#,##0.00;[Red]\-&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +278,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,12 +329,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -314,10 +401,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="11"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -633,16 +741,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
@@ -651,7 +759,7 @@
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -678,11 +786,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="20">
         <v>8</v>
       </c>
       <c r="E2" s="14"/>
@@ -701,14 +809,11 @@
         <v>3823.8249999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="20">
         <v>8</v>
       </c>
       <c r="E3" s="17"/>
@@ -727,14 +832,14 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="C4" s="20">
         <v>3</v>
       </c>
       <c r="E4" s="14"/>
@@ -753,11 +858,11 @@
         <v>812.83333333333326</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="20">
         <v>5</v>
       </c>
       <c r="E5" s="14"/>
@@ -776,219 +881,512 @@
         <v>1092.0875000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="26">
+        <f>SUM(G9*H18,G10*H19,G11*H20,G12*H21)</f>
+        <v>54029.96666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="26">
+        <f>SUM(H18*H9,H10*H19,H11*H20,H12*H21)</f>
+        <v>74291.204166666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="26">
+        <f>SUM(I9*H18,I10*H19,I11*H20,I12*H21)</f>
+        <v>212614.58333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="20">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>34</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26">
+        <f>SUM(J9*H18,H19:H21)</f>
+        <v>14401.395833333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="26">
+        <f>SUM(K9:K12)</f>
+        <v>355337.14999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="20">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="27">
+        <v>8</v>
+      </c>
+      <c r="H14" s="27">
+        <v>11</v>
+      </c>
+      <c r="I14" s="27">
+        <v>46</v>
+      </c>
+      <c r="J14" s="27">
+        <v>3</v>
+      </c>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="20">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" s="26">
+        <v>3823.8249999999998</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18" s="26">
+        <f>I18*H18</f>
+        <v>11471.474999999999</v>
+      </c>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="20">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19" s="26">
+        <v>1025</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="26">
+        <f>I19*H19</f>
+        <v>1025</v>
+      </c>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20" s="26">
+        <v>812.83333333333326</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="26">
+        <f>I20*H20</f>
+        <v>812.83333333333326</v>
+      </c>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21" s="26">
+        <v>1092.0875000000001</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="26">
+        <f>I21*H21</f>
+        <v>1092.0875000000001</v>
+      </c>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="20">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J22" s="26">
+        <f>SUM(J18:J21)</f>
+        <v>14401.395833333332</v>
+      </c>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>36.125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="20">
+        <v>46.875</v>
+      </c>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>36.125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="20">
+        <v>46.875</v>
+      </c>
+      <c r="G24" s="25">
+        <v>30590.6</v>
+      </c>
+      <c r="H24" s="25">
+        <v>42062.080000000002</v>
+      </c>
+      <c r="I24" s="25">
+        <v>103243.28</v>
+      </c>
+      <c r="J24" s="25">
+        <v>11471.48</v>
+      </c>
+      <c r="K24" s="23">
+        <f>SUM(G24:J24)</f>
+        <v>187367.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G25" s="24">
+        <v>8200</v>
+      </c>
+      <c r="H25" s="24">
+        <v>11275</v>
+      </c>
+      <c r="I25" s="24">
+        <v>34850</v>
+      </c>
+      <c r="J25" s="24">
+        <v>1025</v>
+      </c>
+      <c r="K25" s="23">
+        <f>SUM(G25:J25)</f>
+        <v>55350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
-        <v>36.125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="20">
+        <v>46.875</v>
+      </c>
+      <c r="G26" s="24">
+        <v>6502.67</v>
+      </c>
+      <c r="H26" s="24">
+        <v>8941.17</v>
+      </c>
+      <c r="I26" s="24">
+        <v>37390.33</v>
+      </c>
+      <c r="J26" s="24">
+        <v>812.83</v>
+      </c>
+      <c r="K26" s="23">
+        <f>SUM(G26:J26)</f>
+        <v>53647</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G27" s="24">
+        <v>8736.7000000000007</v>
+      </c>
+      <c r="H27" s="24">
+        <v>12012.96</v>
+      </c>
+      <c r="I27" s="24">
+        <v>37130.980000000003</v>
+      </c>
+      <c r="J27" s="24">
+        <v>1092.0899999999999</v>
+      </c>
+      <c r="K27" s="23">
+        <f>SUM(G27:J27)</f>
+        <v>58972.729999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
-        <v>36.125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="20">
+        <v>46.875</v>
+      </c>
+      <c r="K28" s="23">
+        <f>SUM(K24:K27)</f>
+        <v>355337.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
-        <v>36.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="20">
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="20">
         <v>21</v>
       </c>
     </row>
@@ -996,7 +1394,10 @@
       <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="20">
         <v>1</v>
       </c>
     </row>
@@ -1004,71 +1405,86 @@
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C34">
-        <v>23</v>
+      <c r="C34" s="20">
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
-        <v>23</v>
+      <c r="C35" s="20">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C38">
-        <v>20</v>
+      <c r="C38" s="20">
+        <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
-        <v>15</v>
+      <c r="C39" s="20">
+        <v>11.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C40">
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C41">
-        <v>14</v>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="20">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C42">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1076,7 +1492,10 @@
       <c r="A43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="20">
         <v>5</v>
       </c>
     </row>
@@ -1084,23 +1503,29 @@
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C44">
-        <v>6</v>
+      <c r="C44" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45">
-        <v>4</v>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C46">
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="20">
         <v>2</v>
       </c>
     </row>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A861956-CF21-4538-975F-20E674377190}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C864C6-BCDA-4C3E-AFA3-2739E637A99A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -425,6 +425,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:K28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,9 +763,11 @@
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -786,7 +794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -809,7 +817,7 @@
         <v>3823.8249999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -832,7 +840,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -858,7 +866,7 @@
         <v>812.83333333333326</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -881,7 +889,7 @@
         <v>1092.0875000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -892,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -903,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -927,7 +935,7 @@
       </c>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -953,8 +961,12 @@
         <f>SUM(G9*H18,G10*H19,G11*H20,G12*H21)</f>
         <v>54029.96666666666</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>SUM(G9:J9)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,8 +995,12 @@
         <f>SUM(H18*H9,H10*H19,H11*H20,H12*H21)</f>
         <v>74291.204166666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f t="shared" ref="L10:L13" si="2">SUM(G10:J10)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1029,12 @@
         <f>SUM(I9*H18,I10*H19,I11*H20,I12*H21)</f>
         <v>212614.58333333334</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,8 +1060,12 @@
         <f>SUM(J9*H18,H19:H21)</f>
         <v>14401.395833333332</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1076,12 @@
         <f>SUM(K9:K12)</f>
         <v>355337.14999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1076,8 +1104,12 @@
         <v>3</v>
       </c>
       <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>SUM(G14:J14)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1089,7 +1121,7 @@
       </c>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>46.875</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1378,8 +1410,23 @@
       <c r="C31" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G31" s="29">
+        <v>355337.17</v>
+      </c>
+      <c r="H31" s="23">
+        <f>SUM(G31:G34)</f>
+        <v>501156.23</v>
+      </c>
+      <c r="I31" s="23">
+        <f>H31*0.15</f>
+        <v>75173.434499999988</v>
+      </c>
+      <c r="J31" s="23">
+        <f>SUM(H31:I31)</f>
+        <v>576329.66449999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -1389,8 +1436,11 @@
       <c r="C32" s="20">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G32" s="30">
+        <v>1553.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
@@ -1400,16 +1450,22 @@
       <c r="C33" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G33" s="30">
+        <v>14275.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="20">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G34" s="30">
+        <v>129990</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -1417,7 +1473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
@@ -1428,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
@@ -1439,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +1503,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>29</v>
       </c>
@@ -1455,7 +1511,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
@@ -1466,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>37</v>
       </c>
@@ -1477,7 +1533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
@@ -1488,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1518,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C864C6-BCDA-4C3E-AFA3-2739E637A99A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
   <si>
     <t>INITIATION</t>
   </si>
@@ -214,17 +213,21 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>COST PER HOUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="8" formatCode="&quot;₱&quot;#,##0.00;[Red]\-&quot;₱&quot;#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00;[Red]\-&quot;₱&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -360,9 +363,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -401,10 +404,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,24 +417,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="11"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -746,28 +750,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -794,7 +798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -817,7 +821,7 @@
         <v>3823.8249999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -840,7 +844,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -866,7 +870,7 @@
         <v>812.83333333333326</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,7 +893,7 @@
         <v>1092.0875000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -900,7 +904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -911,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -935,7 +939,7 @@
       </c>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -966,7 +970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1125,7 @@
       </c>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1133,7 +1137,7 @@
       </c>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1155,9 +1159,11 @@
       <c r="J17" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1177,9 +1183,12 @@
         <f>I18*H18</f>
         <v>11471.474999999999</v>
       </c>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="31">
+        <f>H18/8</f>
+        <v>477.97812499999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1199,9 +1208,12 @@
         <f>I19*H19</f>
         <v>1025</v>
       </c>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="31">
+        <f>H19/8</f>
+        <v>128.125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1221,9 +1233,12 @@
         <f>I20*H20</f>
         <v>812.83333333333326</v>
       </c>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="31">
+        <f>H20/8</f>
+        <v>101.60416666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1243,9 +1258,12 @@
         <f>I21*H21</f>
         <v>1092.0875000000001</v>
       </c>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="31">
+        <f>H21/8</f>
+        <v>136.51093750000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1279,7 @@
       </c>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1288,7 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1312,7 @@
         <v>187367.44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>55350</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>53647</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>58972.729999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1399,7 @@
         <v>355337.17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1407,7 @@
         <v>46.875</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1444,7 @@
         <v>576329.66449999996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1458,7 @@
         <v>1553.31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>14275.75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>129990</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
@@ -1503,7 +1521,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>29</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>37</v>
       </c>
@@ -1533,7 +1551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>39</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -1563,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1574,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>INITIATION</t>
   </si>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1146,6 +1146,9 @@
       </c>
       <c r="C17" s="20">
         <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="G17" t="s">
         <v>61</v>
@@ -1173,6 +1176,9 @@
       <c r="C18" s="20">
         <v>2.5</v>
       </c>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" s="26">
         <v>3823.8249999999998</v>
       </c>
@@ -1198,6 +1204,9 @@
       <c r="C19" s="20">
         <v>1.75</v>
       </c>
+      <c r="F19" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="H19" s="26">
         <v>1025</v>
       </c>
@@ -1223,6 +1232,9 @@
       <c r="C20" s="20">
         <v>5</v>
       </c>
+      <c r="F20" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="H20" s="26">
         <v>812.83333333333326</v>
       </c>
@@ -1247,6 +1259,9 @@
       </c>
       <c r="C21" s="20">
         <v>1</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="H21" s="26">
         <v>1092.0875000000001</v>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C864C6-BCDA-4C3E-AFA3-2739E637A99A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C69480-E2B6-4841-B7C1-69F974F980FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>INITIATION</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>COST/HR</t>
+  </si>
+  <si>
+    <t># OF WORKING HRS</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,6 +771,7 @@
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -1133,7 +1140,7 @@
       </c>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1156,8 +1163,14 @@
         <v>58</v>
       </c>
       <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1177,9 +1190,19 @@
         <f>I18*H18</f>
         <v>11471.474999999999</v>
       </c>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="26">
+        <v>300</v>
+      </c>
+      <c r="L18" s="26">
+        <f>H18/8</f>
+        <v>477.97812499999998</v>
+      </c>
+      <c r="M18" s="26">
+        <f>L18*K18</f>
+        <v>143393.4375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1199,9 +1222,19 @@
         <f>I19*H19</f>
         <v>1025</v>
       </c>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="26">
+        <v>376</v>
+      </c>
+      <c r="L19" s="26">
+        <f t="shared" ref="L19:L22" si="3">H19/8</f>
+        <v>128.125</v>
+      </c>
+      <c r="M19" s="26">
+        <f t="shared" ref="M19:M21" si="4">L19*K19</f>
+        <v>48175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1221,9 +1254,19 @@
         <f>I20*H20</f>
         <v>812.83333333333326</v>
       </c>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="26">
+        <v>152</v>
+      </c>
+      <c r="L20" s="26">
+        <f t="shared" si="3"/>
+        <v>101.60416666666666</v>
+      </c>
+      <c r="M20" s="26">
+        <f t="shared" si="4"/>
+        <v>15443.833333333332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1243,9 +1286,19 @@
         <f>I21*H21</f>
         <v>1092.0875000000001</v>
       </c>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="26">
+        <v>256</v>
+      </c>
+      <c r="L21" s="26">
+        <f t="shared" si="3"/>
+        <v>136.51093750000001</v>
+      </c>
+      <c r="M21" s="26">
+        <f t="shared" si="4"/>
+        <v>34946.800000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1260,8 +1313,9 @@
         <v>14401.395833333332</v>
       </c>
       <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1324,7 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1348,7 @@
         <v>187367.44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1321,7 +1375,7 @@
         <v>55350</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1345,7 +1399,7 @@
         <v>53647</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1423,7 @@
         <v>58972.729999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
@@ -1381,7 +1435,7 @@
         <v>355337.17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>30</v>
       </c>
@@ -1389,7 +1443,7 @@
         <v>46.875</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1480,7 @@
         <v>576329.66449999996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>33</v>
       </c>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C69480-E2B6-4841-B7C1-69F974F980FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AE73C-5347-46E1-AB6A-375D4F06D49C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>INITIATION</t>
   </si>
@@ -232,7 +232,7 @@
     <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$₱-3409]* #,##0.00_-;\-[$₱-3409]* #,##0.00_-;_-[$₱-3409]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -368,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -436,6 +457,17 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -753,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +797,7 @@
     <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -1180,6 +1212,9 @@
       <c r="C18" s="20">
         <v>2.5</v>
       </c>
+      <c r="F18" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="H18" s="26">
         <v>3823.8249999999998</v>
       </c>
@@ -1190,7 +1225,7 @@
         <f>I18*H18</f>
         <v>11471.474999999999</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="31">
         <v>300</v>
       </c>
       <c r="L18" s="26">
@@ -1212,6 +1247,9 @@
       <c r="C19" s="20">
         <v>1.75</v>
       </c>
+      <c r="F19" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="H19" s="26">
         <v>1025</v>
       </c>
@@ -1222,7 +1260,7 @@
         <f>I19*H19</f>
         <v>1025</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="31">
         <v>376</v>
       </c>
       <c r="L19" s="26">
@@ -1244,6 +1282,9 @@
       <c r="C20" s="20">
         <v>5</v>
       </c>
+      <c r="F20" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="H20" s="26">
         <v>812.83333333333326</v>
       </c>
@@ -1254,7 +1295,7 @@
         <f>I20*H20</f>
         <v>812.83333333333326</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="31">
         <v>152</v>
       </c>
       <c r="L20" s="26">
@@ -1276,6 +1317,9 @@
       <c r="C21" s="20">
         <v>1</v>
       </c>
+      <c r="F21" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="H21" s="26">
         <v>1092.0875000000001</v>
       </c>
@@ -1286,7 +1330,7 @@
         <f>I21*H21</f>
         <v>1092.0875000000001</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="31">
         <v>256</v>
       </c>
       <c r="L21" s="26">
@@ -1494,7 +1538,7 @@
         <v>1553.31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1552,7 @@
         <v>14275.75</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>29</v>
       </c>
@@ -1519,7 +1563,7 @@
         <v>129990</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>57</v>
       </c>
@@ -1548,24 +1592,58 @@
       <c r="C37" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="20">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F38" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="26">
+        <f>(L18*(SUM(8+4+4+8+8)))</f>
+        <v>15295.3</v>
+      </c>
+      <c r="K38">
+        <f>4+8+4+16+4</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="20">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="26">
+        <f>(L19*(SUM(8)))</f>
+        <v>1025</v>
+      </c>
+      <c r="K39">
+        <f>4+8+16</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>36</v>
       </c>
@@ -1575,8 +1653,19 @@
       <c r="C40" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F40" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="26">
+        <f>(L20*8)</f>
+        <v>812.83333333333326</v>
+      </c>
+      <c r="K40">
+        <f>4+4+16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>37</v>
       </c>
@@ -1586,8 +1675,19 @@
       <c r="C41" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F41" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="26">
+        <f>L21*8</f>
+        <v>1092.0875000000001</v>
+      </c>
+      <c r="K41">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
@@ -1597,8 +1697,12 @@
       <c r="C42" s="20">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="26">
+        <f>SUM(G38:G41)</f>
+        <v>18225.220833333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>40</v>
       </c>
@@ -1617,7 +1721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1627,8 +1731,11 @@
       <c r="C45" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="33">
+        <v>246289.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -1637,6 +1744,30 @@
       </c>
       <c r="C46" s="20">
         <v>2</v>
+      </c>
+      <c r="G46" s="34">
+        <v>40928.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="35">
+        <v>1553.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="35">
+        <v>14275.75</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="35">
+        <v>129990</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="23">
+        <f>SUM(G45:G50)</f>
+        <v>433037.12</v>
       </c>
     </row>
   </sheetData>

--- a/DIAGRAMS/PROJMAN/WBS-COST.xlsx
+++ b/DIAGRAMS/PROJMAN/WBS-COST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Jimenez\Documents\GitHub\SOFTDEV-QUALITY\DIAGRAMS\PROJMAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AE73C-5347-46E1-AB6A-375D4F06D49C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD75A34B-1469-4BB9-BCCE-D2B157BE943E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10896" xr2:uid="{F8AF60AC-938E-4A20-9B47-C7691BC67A15}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>INITIATION</t>
   </si>
@@ -220,6 +220,39 @@
   </si>
   <si>
     <t># OF WORKING HRS</t>
+  </si>
+  <si>
+    <t>CLIENT UNAVAILABILITY</t>
+  </si>
+  <si>
+    <t>DELAYED PROJECT SCHEDULE DUE TO UNEXPECTED SUSPENSIONS</t>
+  </si>
+  <si>
+    <t>UNEXPECTED CHANGES IN REQUIREMENT</t>
+  </si>
+  <si>
+    <t>UNEXPECTED EMERGENCY LEAVE ON AN EMPLOYEE</t>
+  </si>
+  <si>
+    <t>INFLATION RATE</t>
+  </si>
+  <si>
+    <t>RISK</t>
+  </si>
+  <si>
+    <t>RISK IMPACT</t>
+  </si>
+  <si>
+    <t>RISK PROBABILITY</t>
+  </si>
+  <si>
+    <t>RISK RATING</t>
+  </si>
+  <si>
+    <t>(0, 50, 100)</t>
+  </si>
+  <si>
+    <t>(1, 2, 3)</t>
   </si>
 </sst>
 </file>
@@ -785,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787CFA8B-3F1E-41A4-B1D9-212A7392AB45}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,9 +837,13 @@
     <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
@@ -832,8 +869,20 @@
       <c r="I1" s="19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -855,8 +904,11 @@
         <f>H2/20</f>
         <v>3823.8249999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -878,8 +930,11 @@
         <f t="shared" ref="I3:I5" si="1">H3/20</f>
         <v>1025</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -904,8 +959,11 @@
         <f t="shared" si="1"/>
         <v>812.83333333333326</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -927,8 +985,11 @@
         <f t="shared" si="1"/>
         <v>1092.0875000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -938,8 +999,11 @@
       <c r="C6" s="20">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -949,8 +1013,17 @@
       <c r="C7" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -974,7 +1047,7 @@
       </c>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1078,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1039,7 +1112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1146,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1120,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1148,7 +1221,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1233,7 @@
       </c>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1264,7 +1337,7 @@
         <v>376</v>
       </c>
       <c r="L19" s="26">
-        <f t="shared" ref="L19:L22" si="3">H19/8</f>
+        <f t="shared" ref="L19:L21" si="3">H19/8</f>
         <v>128.125</v>
       </c>
       <c r="M19" s="26">
